--- a/data/analysis/temporal_analysis/museum_activity_groups_var2_country-size.xlsx
+++ b/data/analysis/temporal_analysis/museum_activity_groups_var2_country-size.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="28">
   <si>
     <t>msg_count_twitter</t>
   </si>
   <si>
     <t>msg_count_facebook</t>
+  </si>
+  <si>
+    <t>sum</t>
   </si>
   <si>
     <t>mean</t>
@@ -44,6 +47,9 @@
   </si>
   <si>
     <t>count</t>
+  </si>
+  <si>
+    <t>msg_per_mus</t>
   </si>
   <si>
     <t>active_mus_n</t>
@@ -449,13 +455,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X29"/>
+  <dimension ref="A1:AB29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:28">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -470,11 +476,11 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -483,8 +489,12 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+    </row>
+    <row r="2" spans="1:28">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -520,63 +530,75 @@
         <v>12</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="AA2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4">
         <v>2.8</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>5.5</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
       <c r="F4">
         <v>0</v>
       </c>
@@ -584,29 +606,29 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>2.8</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>11</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>4</v>
       </c>
-      <c r="K4">
+      <c r="L4">
+        <v>2.8</v>
+      </c>
+      <c r="M4">
         <v>1</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>25</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>-1.3</v>
       </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
       <c r="P4">
         <v>0</v>
       </c>
@@ -623,32 +645,44 @@
         <v>0</v>
       </c>
       <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
         <v>4</v>
       </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
         <v>-1.2</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:28">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5">
+        <v>1704</v>
+      </c>
+      <c r="D5">
         <v>189.3</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>568</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
       <c r="F5">
         <v>0</v>
       </c>
@@ -659,68 +693,80 @@
         <v>0</v>
       </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>1704</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>9</v>
       </c>
-      <c r="K5">
+      <c r="L5">
+        <v>189.3</v>
+      </c>
+      <c r="M5">
         <v>1</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>11.1</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>-1.8</v>
       </c>
-      <c r="N5">
+      <c r="P5">
+        <v>632</v>
+      </c>
+      <c r="Q5">
         <v>70.2</v>
       </c>
-      <c r="O5">
+      <c r="R5">
         <v>210.7</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
         <v>632</v>
       </c>
-      <c r="U5">
+      <c r="X5">
         <v>9</v>
       </c>
-      <c r="V5">
+      <c r="Y5">
+        <v>70.2</v>
+      </c>
+      <c r="Z5">
         <v>1</v>
       </c>
-      <c r="W5">
+      <c r="AA5">
         <v>11.1</v>
       </c>
-      <c r="X5">
+      <c r="AB5">
         <v>-0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:28">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6">
+        <v>219</v>
+      </c>
+      <c r="D6">
         <v>54.8</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>109.5</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
       <c r="F6">
         <v>0</v>
       </c>
@@ -728,29 +774,29 @@
         <v>0</v>
       </c>
       <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>54.8</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>219</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>4</v>
       </c>
-      <c r="K6">
+      <c r="L6">
+        <v>54.8</v>
+      </c>
+      <c r="M6">
         <v>1</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>25</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>-1.3</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
       <c r="P6">
         <v>0</v>
       </c>
@@ -767,32 +813,44 @@
         <v>0</v>
       </c>
       <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
         <v>4</v>
       </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
         <v>-1.2</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:28">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7">
+        <v>102</v>
+      </c>
+      <c r="D7">
         <v>14.6</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>38.6</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
       <c r="F7">
         <v>0</v>
       </c>
@@ -803,427 +861,499 @@
         <v>0</v>
       </c>
       <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <v>102</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>7</v>
       </c>
-      <c r="K7">
+      <c r="L7">
+        <v>14.6</v>
+      </c>
+      <c r="M7">
         <v>1</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>14.3</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>-1.7</v>
       </c>
-      <c r="N7">
+      <c r="P7">
+        <v>227</v>
+      </c>
+      <c r="Q7">
         <v>32.4</v>
       </c>
-      <c r="O7">
+      <c r="R7">
         <v>85.8</v>
       </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
         <v>227</v>
       </c>
-      <c r="U7">
+      <c r="X7">
         <v>7</v>
       </c>
-      <c r="V7">
+      <c r="Y7">
+        <v>32.4</v>
+      </c>
+      <c r="Z7">
         <v>1</v>
       </c>
-      <c r="W7">
+      <c r="AA7">
         <v>14.3</v>
       </c>
-      <c r="X7">
+      <c r="AB7">
         <v>-0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:28">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8">
+        <v>104419</v>
+      </c>
+      <c r="D8">
         <v>10441.9</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>8183.3</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
       <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>5856</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>9964</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>13231.5</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>24416</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>10</v>
       </c>
-      <c r="K8">
+      <c r="L8">
+        <v>10441.9</v>
+      </c>
+      <c r="M8">
         <v>9</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>90</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>1.2</v>
       </c>
-      <c r="N8">
+      <c r="P8">
+        <v>11608</v>
+      </c>
+      <c r="Q8">
         <v>1160.8</v>
       </c>
-      <c r="O8">
+      <c r="R8">
         <v>949.1</v>
       </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
         <v>472.2</v>
       </c>
-      <c r="R8">
+      <c r="U8">
         <v>1081</v>
       </c>
-      <c r="S8">
+      <c r="V8">
         <v>1550.2</v>
       </c>
-      <c r="T8">
+      <c r="W8">
         <v>3063</v>
       </c>
-      <c r="U8">
+      <c r="X8">
         <v>10</v>
       </c>
-      <c r="V8">
+      <c r="Y8">
+        <v>1160.8</v>
+      </c>
+      <c r="Z8">
         <v>8</v>
       </c>
-      <c r="W8">
+      <c r="AA8">
         <v>80</v>
       </c>
-      <c r="X8">
+      <c r="AB8">
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:28">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9">
+        <v>1075701</v>
+      </c>
+      <c r="D9">
         <v>2617.3</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>4534.6</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
       <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>366</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1148</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>2839.5</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>39187</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>411</v>
       </c>
-      <c r="K9">
+      <c r="L9">
+        <v>2617.3</v>
+      </c>
+      <c r="M9">
         <v>351</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>85.40000000000001</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>1</v>
       </c>
-      <c r="N9">
+      <c r="P9">
+        <v>256890</v>
+      </c>
+      <c r="Q9">
         <v>625</v>
       </c>
-      <c r="O9">
+      <c r="R9">
         <v>968.3</v>
       </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
         <v>474</v>
       </c>
-      <c r="S9">
+      <c r="V9">
         <v>890.5</v>
       </c>
-      <c r="T9">
+      <c r="W9">
         <v>13270</v>
       </c>
-      <c r="U9">
+      <c r="X9">
         <v>411</v>
       </c>
-      <c r="V9">
+      <c r="Y9">
+        <v>625</v>
+      </c>
+      <c r="Z9">
         <v>280</v>
       </c>
-      <c r="W9">
+      <c r="AA9">
         <v>68.09999999999999</v>
       </c>
-      <c r="X9">
+      <c r="AB9">
         <v>1.1</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:28">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10">
+        <v>1149709</v>
+      </c>
+      <c r="D10">
         <v>1695.7</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>4357.3</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
       <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>4</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>399.5</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>1613</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>60677</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>678</v>
       </c>
-      <c r="K10">
+      <c r="L10">
+        <v>1695.7</v>
+      </c>
+      <c r="M10">
         <v>521</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>76.8</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>0.7</v>
       </c>
-      <c r="N10">
+      <c r="P10">
+        <v>366805</v>
+      </c>
+      <c r="Q10">
         <v>541</v>
       </c>
-      <c r="O10">
+      <c r="R10">
         <v>1761.8</v>
       </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
       <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
         <v>633</v>
       </c>
-      <c r="T10">
+      <c r="W10">
         <v>37660</v>
       </c>
-      <c r="U10">
+      <c r="X10">
         <v>678</v>
       </c>
-      <c r="V10">
+      <c r="Y10">
+        <v>541</v>
+      </c>
+      <c r="Z10">
         <v>315</v>
       </c>
-      <c r="W10">
+      <c r="AA10">
         <v>46.5</v>
       </c>
-      <c r="X10">
+      <c r="AB10">
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:28">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11">
+        <v>1848210</v>
+      </c>
+      <c r="D11">
         <v>1398</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>4837.2</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>46</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>731.2</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>74189</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>1322</v>
       </c>
-      <c r="K11">
+      <c r="L11">
+        <v>1398</v>
+      </c>
+      <c r="M11">
         <v>797</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>60.3</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>0.1</v>
       </c>
-      <c r="N11">
+      <c r="P11">
+        <v>366124</v>
+      </c>
+      <c r="Q11">
         <v>276.9</v>
       </c>
-      <c r="O11">
+      <c r="R11">
         <v>1147.5</v>
       </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
       <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
         <v>62.8</v>
       </c>
-      <c r="T11">
+      <c r="W11">
         <v>22243</v>
       </c>
-      <c r="U11">
+      <c r="X11">
         <v>1322</v>
       </c>
-      <c r="V11">
+      <c r="Y11">
+        <v>276.9</v>
+      </c>
+      <c r="Z11">
         <v>351</v>
       </c>
-      <c r="W11">
+      <c r="AA11">
         <v>26.6</v>
       </c>
-      <c r="X11">
+      <c r="AB11">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:28">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12">
+        <v>200062</v>
+      </c>
+      <c r="D12">
         <v>2381.7</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>9772.4</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>34.5</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>1056.2</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>75337</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>84</v>
       </c>
-      <c r="K12">
+      <c r="L12">
+        <v>2381.7</v>
+      </c>
+      <c r="M12">
         <v>49</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>58.3</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>-0</v>
       </c>
-      <c r="N12">
+      <c r="P12">
+        <v>70308</v>
+      </c>
+      <c r="Q12">
         <v>837</v>
       </c>
-      <c r="O12">
+      <c r="R12">
         <v>2903.3</v>
       </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
       <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
         <v>481.5</v>
       </c>
-      <c r="T12">
+      <c r="W12">
         <v>20570</v>
       </c>
-      <c r="U12">
+      <c r="X12">
         <v>84</v>
       </c>
-      <c r="V12">
+      <c r="Y12">
+        <v>837</v>
+      </c>
+      <c r="Z12">
         <v>28</v>
       </c>
-      <c r="W12">
+      <c r="AA12">
         <v>33.3</v>
       </c>
-      <c r="X12">
+      <c r="AB12">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:28">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C13">
         <v>2065</v>
       </c>
-      <c r="E13">
+      <c r="D13">
         <v>2065</v>
       </c>
       <c r="F13">
@@ -1239,29 +1369,29 @@
         <v>2065</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>2065</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
+        <v>2065</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
         <v>100</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>1.5</v>
       </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
       <c r="S13">
         <v>0</v>
       </c>
@@ -1269,32 +1399,44 @@
         <v>0</v>
       </c>
       <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
         <v>1</v>
       </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
         <v>-1.2</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:28">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C14">
+        <v>114</v>
+      </c>
+      <c r="D14">
         <v>28.5</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>57</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
       <c r="F14">
         <v>0</v>
       </c>
@@ -1302,29 +1444,29 @@
         <v>0</v>
       </c>
       <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>28.5</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>114</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>4</v>
       </c>
-      <c r="K14">
+      <c r="L14">
+        <v>28.5</v>
+      </c>
+      <c r="M14">
         <v>1</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <v>25</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>-1.3</v>
       </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
       <c r="P14">
         <v>0</v>
       </c>
@@ -1341,32 +1483,44 @@
         <v>0</v>
       </c>
       <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
         <v>4</v>
       </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
         <v>-1.2</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:28">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
         <v>2.3</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>4</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
       <c r="F15">
         <v>0</v>
       </c>
@@ -1374,29 +1528,29 @@
         <v>0</v>
       </c>
       <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
         <v>3.5</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>7</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>3</v>
       </c>
-      <c r="K15">
+      <c r="L15">
+        <v>2.3</v>
+      </c>
+      <c r="M15">
         <v>1</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <v>33.3</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>-1</v>
       </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
       <c r="P15">
         <v>0</v>
       </c>
@@ -1413,32 +1567,44 @@
         <v>0</v>
       </c>
       <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
         <v>3</v>
       </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
         <v>-1.2</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:28">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16">
+        <v>71202</v>
+      </c>
+      <c r="D16">
         <v>10171.7</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>26012.6</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
       <c r="F16">
         <v>0</v>
       </c>
@@ -1446,217 +1612,253 @@
         <v>0</v>
       </c>
       <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
         <v>1032.5</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>69137</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>7</v>
       </c>
-      <c r="K16">
+      <c r="L16">
+        <v>10171.7</v>
+      </c>
+      <c r="M16">
         <v>2</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>28.6</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>-1.1</v>
       </c>
-      <c r="N16">
+      <c r="P16">
+        <v>683</v>
+      </c>
+      <c r="Q16">
         <v>97.59999999999999</v>
       </c>
-      <c r="O16">
+      <c r="R16">
         <v>258.1</v>
       </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
         <v>683</v>
       </c>
-      <c r="U16">
+      <c r="X16">
         <v>7</v>
       </c>
-      <c r="V16">
+      <c r="Y16">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="Z16">
         <v>1</v>
       </c>
-      <c r="W16">
+      <c r="AA16">
         <v>14.3</v>
       </c>
-      <c r="X16">
+      <c r="AB16">
         <v>-0.7</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:28">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C17">
+        <v>8387</v>
+      </c>
+      <c r="D17">
         <v>1198.1</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>905.7</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
       <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
         <v>667.5</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>1084</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>1695</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>2578</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>7</v>
       </c>
-      <c r="K17">
+      <c r="L17">
+        <v>1198.1</v>
+      </c>
+      <c r="M17">
         <v>6</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <v>85.7</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <v>1</v>
       </c>
-      <c r="N17">
+      <c r="P17">
+        <v>4750</v>
+      </c>
+      <c r="Q17">
         <v>678.6</v>
       </c>
-      <c r="O17">
+      <c r="R17">
         <v>400.8</v>
       </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
         <v>523</v>
       </c>
-      <c r="R17">
+      <c r="U17">
         <v>751</v>
       </c>
-      <c r="S17">
+      <c r="V17">
         <v>824</v>
       </c>
-      <c r="T17">
+      <c r="W17">
         <v>1305</v>
       </c>
-      <c r="U17">
+      <c r="X17">
         <v>7</v>
       </c>
-      <c r="V17">
+      <c r="Y17">
+        <v>678.6</v>
+      </c>
+      <c r="Z17">
         <v>6</v>
       </c>
-      <c r="W17">
+      <c r="AA17">
         <v>85.7</v>
       </c>
-      <c r="X17">
+      <c r="AB17">
         <v>1.7</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:28">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C18">
+        <v>62431</v>
+      </c>
+      <c r="D18">
         <v>3121.6</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>6424.5</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>491</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>2001.8</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>25825</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>20</v>
       </c>
-      <c r="K18">
+      <c r="L18">
+        <v>3121.6</v>
+      </c>
+      <c r="M18">
         <v>13</v>
       </c>
-      <c r="L18">
+      <c r="N18">
         <v>65</v>
       </c>
-      <c r="M18">
+      <c r="O18">
         <v>0.2</v>
       </c>
-      <c r="N18">
+      <c r="P18">
+        <v>25143</v>
+      </c>
+      <c r="Q18">
         <v>1257.2</v>
       </c>
-      <c r="O18">
+      <c r="R18">
         <v>2414.9</v>
       </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
       <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
         <v>699</v>
       </c>
-      <c r="T18">
+      <c r="W18">
         <v>7467</v>
       </c>
-      <c r="U18">
+      <c r="X18">
         <v>20</v>
       </c>
-      <c r="V18">
+      <c r="Y18">
+        <v>1257.2</v>
+      </c>
+      <c r="Z18">
         <v>9</v>
       </c>
-      <c r="W18">
+      <c r="AA18">
         <v>45</v>
       </c>
-      <c r="X18">
+      <c r="AB18">
         <v>0.3</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:28">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C19">
+        <v>74836</v>
+      </c>
+      <c r="D19">
         <v>1312.9</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>4439.4</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
       <c r="F19">
         <v>0</v>
       </c>
@@ -1664,361 +1866,421 @@
         <v>0</v>
       </c>
       <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>227</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>25234</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>57</v>
       </c>
-      <c r="K19">
+      <c r="L19">
+        <v>1312.9</v>
+      </c>
+      <c r="M19">
         <v>28</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <v>49.1</v>
       </c>
-      <c r="M19">
+      <c r="O19">
         <v>-0.4</v>
       </c>
-      <c r="N19">
+      <c r="P19">
+        <v>15453</v>
+      </c>
+      <c r="Q19">
         <v>271.1</v>
       </c>
-      <c r="O19">
+      <c r="R19">
         <v>991</v>
       </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
         <v>6999</v>
       </c>
-      <c r="U19">
+      <c r="X19">
         <v>57</v>
       </c>
-      <c r="V19">
+      <c r="Y19">
+        <v>271.1</v>
+      </c>
+      <c r="Z19">
         <v>12</v>
       </c>
-      <c r="W19">
+      <c r="AA19">
         <v>21.1</v>
       </c>
-      <c r="X19">
+      <c r="AB19">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:28">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20">
+        <v>38678</v>
+      </c>
+      <c r="D20">
         <v>3867.8</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>7077.4</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
       <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
         <v>138.8</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>1398</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>3077.8</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>23238</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>10</v>
       </c>
-      <c r="K20">
+      <c r="L20">
+        <v>3867.8</v>
+      </c>
+      <c r="M20">
         <v>8</v>
       </c>
-      <c r="L20">
+      <c r="N20">
         <v>80</v>
       </c>
-      <c r="M20">
+      <c r="O20">
         <v>0.8</v>
       </c>
-      <c r="N20">
+      <c r="P20">
+        <v>13757</v>
+      </c>
+      <c r="Q20">
         <v>1375.7</v>
       </c>
-      <c r="O20">
+      <c r="R20">
         <v>2290.8</v>
       </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
         <v>134.2</v>
       </c>
-      <c r="R20">
+      <c r="U20">
         <v>687.5</v>
       </c>
-      <c r="S20">
+      <c r="V20">
         <v>1352.8</v>
       </c>
-      <c r="T20">
+      <c r="W20">
         <v>7684</v>
       </c>
-      <c r="U20">
+      <c r="X20">
         <v>10</v>
       </c>
-      <c r="V20">
+      <c r="Y20">
+        <v>1375.7</v>
+      </c>
+      <c r="Z20">
         <v>7</v>
       </c>
-      <c r="W20">
+      <c r="AA20">
         <v>70</v>
       </c>
-      <c r="X20">
+      <c r="AB20">
         <v>1.2</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:28">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C21">
+        <v>8612</v>
+      </c>
+      <c r="D21">
         <v>4306</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>3196.1</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>2046</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>3176</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>4306</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>5436</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>6566</v>
-      </c>
-      <c r="J21">
-        <v>2</v>
       </c>
       <c r="K21">
         <v>2</v>
       </c>
       <c r="L21">
+        <v>4306</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="N21">
         <v>100</v>
       </c>
-      <c r="M21">
+      <c r="O21">
         <v>1.5</v>
       </c>
-      <c r="N21">
+      <c r="P21">
+        <v>1488</v>
+      </c>
+      <c r="Q21">
         <v>744</v>
       </c>
-      <c r="O21">
+      <c r="R21">
         <v>476.6</v>
       </c>
-      <c r="P21">
+      <c r="S21">
         <v>407</v>
       </c>
-      <c r="Q21">
+      <c r="T21">
         <v>575.5</v>
       </c>
-      <c r="R21">
+      <c r="U21">
         <v>744</v>
       </c>
-      <c r="S21">
+      <c r="V21">
         <v>912.5</v>
       </c>
-      <c r="T21">
+      <c r="W21">
         <v>1081</v>
       </c>
-      <c r="U21">
+      <c r="X21">
         <v>2</v>
       </c>
-      <c r="V21">
+      <c r="Y21">
+        <v>744</v>
+      </c>
+      <c r="Z21">
         <v>2</v>
       </c>
-      <c r="W21">
+      <c r="AA21">
         <v>100</v>
       </c>
-      <c r="X21">
+      <c r="AB21">
         <v>2.2</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:28">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C22">
+        <v>136357</v>
+      </c>
+      <c r="D22">
         <v>2727.1</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>4460.1</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
       <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
         <v>23.2</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>1057</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>2650</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>18739</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>50</v>
       </c>
-      <c r="K22">
+      <c r="L22">
+        <v>2727.1</v>
+      </c>
+      <c r="M22">
         <v>39</v>
       </c>
-      <c r="L22">
+      <c r="N22">
         <v>78</v>
       </c>
-      <c r="M22">
+      <c r="O22">
         <v>0.7</v>
       </c>
-      <c r="N22">
+      <c r="P22">
+        <v>28460</v>
+      </c>
+      <c r="Q22">
         <v>569.2</v>
       </c>
-      <c r="O22">
+      <c r="R22">
         <v>710.7</v>
       </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
         <v>250.5</v>
       </c>
-      <c r="S22">
+      <c r="V22">
         <v>1011.2</v>
       </c>
-      <c r="T22">
+      <c r="W22">
         <v>3269</v>
       </c>
-      <c r="U22">
+      <c r="X22">
         <v>50</v>
       </c>
-      <c r="V22">
+      <c r="Y22">
+        <v>569.2</v>
+      </c>
+      <c r="Z22">
         <v>27</v>
       </c>
-      <c r="W22">
+      <c r="AA22">
         <v>54</v>
       </c>
-      <c r="X22">
+      <c r="AB22">
         <v>0.6</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:28">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C23">
+        <v>202407</v>
+      </c>
+      <c r="D23">
         <v>2044.5</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>7425.5</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>433</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>1408.5</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>69234</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>99</v>
       </c>
-      <c r="K23">
+      <c r="L23">
+        <v>2044.5</v>
+      </c>
+      <c r="M23">
         <v>67</v>
       </c>
-      <c r="L23">
+      <c r="N23">
         <v>67.7</v>
       </c>
-      <c r="M23">
+      <c r="O23">
         <v>0.3</v>
       </c>
-      <c r="N23">
+      <c r="P23">
+        <v>42960</v>
+      </c>
+      <c r="Q23">
         <v>433.9</v>
       </c>
-      <c r="O23">
+      <c r="R23">
         <v>1228.5</v>
       </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
       <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
         <v>391.5</v>
       </c>
-      <c r="T23">
+      <c r="W23">
         <v>9146</v>
       </c>
-      <c r="U23">
+      <c r="X23">
         <v>99</v>
       </c>
-      <c r="V23">
+      <c r="Y23">
+        <v>433.9</v>
+      </c>
+      <c r="Z23">
         <v>35</v>
       </c>
-      <c r="W23">
+      <c r="AA23">
         <v>35.4</v>
       </c>
-      <c r="X23">
+      <c r="AB23">
         <v>-0</v>
       </c>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:28">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C24">
+        <v>283659</v>
+      </c>
+      <c r="D24">
         <v>900.5</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>4018.2</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
       <c r="F24">
         <v>0</v>
       </c>
@@ -2026,423 +2288,495 @@
         <v>0</v>
       </c>
       <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
         <v>363</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>57312</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>315</v>
       </c>
-      <c r="K24">
+      <c r="L24">
+        <v>900.5</v>
+      </c>
+      <c r="M24">
         <v>151</v>
       </c>
-      <c r="L24">
+      <c r="N24">
         <v>47.9</v>
       </c>
-      <c r="M24">
+      <c r="O24">
         <v>-0.4</v>
       </c>
-      <c r="N24">
+      <c r="P24">
+        <v>111759</v>
+      </c>
+      <c r="Q24">
         <v>354.8</v>
       </c>
-      <c r="O24">
+      <c r="R24">
         <v>2271.6</v>
       </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
         <v>37563</v>
       </c>
-      <c r="U24">
+      <c r="X24">
         <v>315</v>
       </c>
-      <c r="V24">
+      <c r="Y24">
+        <v>354.8</v>
+      </c>
+      <c r="Z24">
         <v>65</v>
       </c>
-      <c r="W24">
+      <c r="AA24">
         <v>20.6</v>
       </c>
-      <c r="X24">
+      <c r="AB24">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:28">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C25">
+        <v>21224</v>
+      </c>
+      <c r="D25">
         <v>758</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>1419.1</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>7.5</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>1015.2</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>6607</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>28</v>
       </c>
-      <c r="K25">
+      <c r="L25">
+        <v>758</v>
+      </c>
+      <c r="M25">
         <v>15</v>
       </c>
-      <c r="L25">
+      <c r="N25">
         <v>53.6</v>
       </c>
-      <c r="M25">
+      <c r="O25">
         <v>-0.2</v>
       </c>
-      <c r="N25">
+      <c r="P25">
+        <v>4087</v>
+      </c>
+      <c r="Q25">
         <v>146</v>
       </c>
-      <c r="O25">
+      <c r="R25">
         <v>325.5</v>
       </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
       <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
         <v>15.2</v>
       </c>
-      <c r="T25">
+      <c r="W25">
         <v>1244</v>
       </c>
-      <c r="U25">
+      <c r="X25">
         <v>28</v>
       </c>
-      <c r="V25">
+      <c r="Y25">
+        <v>146</v>
+      </c>
+      <c r="Z25">
         <v>7</v>
       </c>
-      <c r="W25">
+      <c r="AA25">
         <v>25</v>
       </c>
-      <c r="X25">
+      <c r="AB25">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:28">
       <c r="A26" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26">
+        <v>37208</v>
+      </c>
+      <c r="D26">
+        <v>1488.3</v>
+      </c>
+      <c r="E26">
+        <v>1955.6</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>177</v>
+      </c>
+      <c r="H26">
+        <v>856</v>
+      </c>
+      <c r="I26">
+        <v>1587</v>
+      </c>
+      <c r="J26">
+        <v>6895</v>
+      </c>
+      <c r="K26">
+        <v>25</v>
+      </c>
+      <c r="L26">
+        <v>1488.3</v>
+      </c>
+      <c r="M26">
         <v>21</v>
       </c>
-      <c r="C26">
-        <v>1488.3</v>
-      </c>
-      <c r="D26">
-        <v>1955.6</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>177</v>
-      </c>
-      <c r="G26">
-        <v>856</v>
-      </c>
-      <c r="H26">
-        <v>1587</v>
-      </c>
-      <c r="I26">
-        <v>6895</v>
-      </c>
-      <c r="J26">
+      <c r="N26">
+        <v>84</v>
+      </c>
+      <c r="O26">
+        <v>0.9</v>
+      </c>
+      <c r="P26">
+        <v>9987</v>
+      </c>
+      <c r="Q26">
+        <v>399.5</v>
+      </c>
+      <c r="R26">
+        <v>444.1</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>327</v>
+      </c>
+      <c r="V26">
+        <v>619</v>
+      </c>
+      <c r="W26">
+        <v>1680</v>
+      </c>
+      <c r="X26">
         <v>25</v>
       </c>
-      <c r="K26">
-        <v>21</v>
-      </c>
-      <c r="L26">
-        <v>84</v>
-      </c>
-      <c r="M26">
-        <v>0.9</v>
-      </c>
-      <c r="N26">
+      <c r="Y26">
         <v>399.5</v>
       </c>
-      <c r="O26">
-        <v>444.1</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>327</v>
-      </c>
-      <c r="S26">
-        <v>619</v>
-      </c>
-      <c r="T26">
-        <v>1680</v>
-      </c>
-      <c r="U26">
-        <v>25</v>
-      </c>
-      <c r="V26">
+      <c r="Z26">
         <v>15</v>
       </c>
-      <c r="W26">
+      <c r="AA26">
         <v>60</v>
       </c>
-      <c r="X26">
+      <c r="AB26">
         <v>0.8</v>
       </c>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:28">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C27">
+        <v>118639</v>
+      </c>
+      <c r="D27">
         <v>2197</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>5335.3</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
       <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
         <v>29.2</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>347</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>1803.8</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>30943</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>54</v>
       </c>
-      <c r="K27">
+      <c r="L27">
+        <v>2197</v>
+      </c>
+      <c r="M27">
         <v>43</v>
       </c>
-      <c r="L27">
+      <c r="N27">
         <v>79.59999999999999</v>
       </c>
-      <c r="M27">
+      <c r="O27">
         <v>0.8</v>
       </c>
-      <c r="N27">
+      <c r="P27">
+        <v>42365</v>
+      </c>
+      <c r="Q27">
         <v>784.5</v>
       </c>
-      <c r="O27">
+      <c r="R27">
         <v>2125.4</v>
       </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
       <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
         <v>581.2</v>
       </c>
-      <c r="T27">
+      <c r="W27">
         <v>13584</v>
       </c>
-      <c r="U27">
+      <c r="X27">
         <v>54</v>
       </c>
-      <c r="V27">
+      <c r="Y27">
+        <v>784.5</v>
+      </c>
+      <c r="Z27">
         <v>24</v>
       </c>
-      <c r="W27">
+      <c r="AA27">
         <v>44.4</v>
       </c>
-      <c r="X27">
+      <c r="AB27">
         <v>0.3</v>
       </c>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:28">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C28">
+        <v>163480</v>
+      </c>
+      <c r="D28">
         <v>1318.4</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>4399.8</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
         <v>10</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>642.2</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>30940</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>124</v>
       </c>
-      <c r="K28">
+      <c r="L28">
+        <v>1318.4</v>
+      </c>
+      <c r="M28">
         <v>68</v>
       </c>
-      <c r="L28">
+      <c r="N28">
         <v>54.8</v>
       </c>
-      <c r="M28">
+      <c r="O28">
         <v>-0.1</v>
       </c>
-      <c r="N28">
+      <c r="P28">
+        <v>91192</v>
+      </c>
+      <c r="Q28">
         <v>735.4</v>
       </c>
-      <c r="O28">
+      <c r="R28">
         <v>2142.1</v>
       </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
       <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
         <v>429.2</v>
       </c>
-      <c r="T28">
+      <c r="W28">
         <v>13530</v>
       </c>
-      <c r="U28">
+      <c r="X28">
         <v>124</v>
       </c>
-      <c r="V28">
+      <c r="Y28">
+        <v>735.4</v>
+      </c>
+      <c r="Z28">
         <v>54</v>
       </c>
-      <c r="W28">
+      <c r="AA28">
         <v>43.5</v>
       </c>
-      <c r="X28">
+      <c r="AB28">
         <v>0.3</v>
       </c>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:28">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C29">
+        <v>4184</v>
+      </c>
+      <c r="D29">
         <v>1046</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>2089.3</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <v>2</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>1048</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>4180</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>4</v>
       </c>
-      <c r="K29">
+      <c r="L29">
+        <v>1046</v>
+      </c>
+      <c r="M29">
         <v>2</v>
       </c>
-      <c r="L29">
+      <c r="N29">
         <v>50</v>
       </c>
-      <c r="M29">
+      <c r="O29">
         <v>-0.3</v>
       </c>
-      <c r="N29">
+      <c r="P29">
+        <v>2914</v>
+      </c>
+      <c r="Q29">
         <v>728.5</v>
       </c>
-      <c r="O29">
+      <c r="R29">
         <v>1457</v>
       </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
       <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
         <v>728.5</v>
       </c>
-      <c r="T29">
+      <c r="W29">
         <v>2914</v>
       </c>
-      <c r="U29">
+      <c r="X29">
         <v>4</v>
       </c>
-      <c r="V29">
+      <c r="Y29">
+        <v>728.5</v>
+      </c>
+      <c r="Z29">
         <v>1</v>
       </c>
-      <c r="W29">
+      <c r="AA29">
         <v>25</v>
       </c>
-      <c r="X29">
+      <c r="AB29">
         <v>-0.4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="N1:X1"/>
+    <mergeCell ref="C1:O1"/>
+    <mergeCell ref="P1:AB1"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="A13:A16"/>
